--- a/Xports/UD_French-PUD/VERB-direct-obj.xlsx
+++ b/Xports/UD_French-PUD/VERB-direct-obj.xlsx
@@ -22397,7 +22397,7 @@
         <v>3903</v>
       </c>
       <c r="O219">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:15">
@@ -25499,7 +25499,7 @@
         <v>3903</v>
       </c>
       <c r="O285">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:15">
